--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -198,7 +198,7 @@
     <numFmt numFmtId="181" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1035,133 +1041,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1257,6 @@
     <xf numFmtId="181" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1387,6 +1390,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,8 +1722,8 @@
   <sheetPr/>
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.5"/>
@@ -1764,7 +1768,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="58"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="6"/>
@@ -1789,7 +1793,7 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="59"/>
+      <c r="W2" s="58"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="6"/>
@@ -1814,7 +1818,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="59"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="8"/>
@@ -1839,7 +1843,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="60"/>
+      <c r="W4" s="59"/>
     </row>
     <row r="5" ht="19.25"/>
     <row r="6" ht="21" spans="1:23">
@@ -1861,25 +1865,25 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="61" t="s">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1910,43 +1914,43 @@
       <c r="J7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="63" t="s">
+      <c r="T7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="63" t="s">
+      <c r="V7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="21" t="s">
@@ -1956,16 +1960,20 @@
         <v>15.9</v>
       </c>
       <c r="C8" s="23">
-        <v>42</v>
+        <f ca="1">RANDBETWEEN(32,40)</f>
+        <v>40</v>
       </c>
       <c r="D8" s="23">
-        <v>54</v>
+        <f ca="1">RANDBETWEEN(32,40)</f>
+        <v>34</v>
       </c>
       <c r="E8" s="23">
-        <v>45</v>
+        <f ca="1">RANDBETWEEN(32,40)</f>
+        <v>39</v>
       </c>
       <c r="F8" s="23">
-        <v>45</v>
+        <f ca="1">RANDBETWEEN(32,40)</f>
+        <v>33</v>
       </c>
       <c r="G8" s="24">
         <v>2</v>
@@ -1980,59 +1988,59 @@
         <v>5</v>
       </c>
       <c r="K8" s="22">
-        <f>C8*$B$8</f>
-        <v>667.8</v>
+        <f ca="1">C8*$B$8</f>
+        <v>636</v>
       </c>
       <c r="L8" s="22">
-        <f>D8*$B$8</f>
-        <v>858.6</v>
+        <f ca="1">D8*$B$8</f>
+        <v>540.6</v>
       </c>
       <c r="M8" s="22">
-        <f>E8*$B$8</f>
-        <v>715.5</v>
+        <f ca="1">E8*$B$8</f>
+        <v>620.1</v>
       </c>
       <c r="N8" s="22">
-        <f>F8*$B$8</f>
-        <v>715.5</v>
-      </c>
-      <c r="O8" s="51">
+        <f ca="1">F8*$B$8</f>
+        <v>524.7</v>
+      </c>
+      <c r="O8" s="50">
         <f>$B$8*G8*0.5</f>
         <v>15.9</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="50">
         <f>$B$8*H8*0.5</f>
         <v>111.3</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="50">
         <f>$B$8*I8*0.5</f>
         <v>39.75</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="50">
         <f>$B$8*J8*0.5</f>
         <v>39.75</v>
       </c>
-      <c r="S8" s="65">
-        <f>K8+O8</f>
-        <v>683.7</v>
-      </c>
-      <c r="T8" s="65">
-        <f>L8+P8</f>
-        <v>969.9</v>
-      </c>
-      <c r="U8" s="65">
-        <f>M8+Q8</f>
-        <v>755.25</v>
-      </c>
-      <c r="V8" s="65">
-        <f>N8+R8</f>
-        <v>755.25</v>
-      </c>
-      <c r="W8" s="66">
-        <f>O8+S8</f>
-        <v>699.6</v>
+      <c r="S8" s="64">
+        <f ca="1">K8+O8</f>
+        <v>651.9</v>
+      </c>
+      <c r="T8" s="64">
+        <f ca="1">L8+P8</f>
+        <v>651.9</v>
+      </c>
+      <c r="U8" s="64">
+        <f ca="1">M8+Q8</f>
+        <v>659.85</v>
+      </c>
+      <c r="V8" s="64">
+        <f ca="1">N8+R8</f>
+        <v>564.45</v>
+      </c>
+      <c r="W8" s="65">
+        <f ca="1">O8+S8</f>
+        <v>667.8</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:23">
+    <row r="9" s="1" customFormat="1" ht="21" spans="1:23">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -2040,16 +2048,20 @@
         <v>10</v>
       </c>
       <c r="C9" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" ref="C9:C18" si="0">RANDBETWEEN(32,40)</f>
+        <v>32</v>
       </c>
       <c r="D9" s="23">
-        <v>44</v>
+        <f ca="1" t="shared" ref="D9:D18" si="1">RANDBETWEEN(32,40)</f>
+        <v>35</v>
       </c>
       <c r="E9" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" ref="E9:E18" si="2">RANDBETWEEN(32,40)</f>
+        <v>37</v>
       </c>
       <c r="F9" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" ref="F9:F18" si="3">RANDBETWEEN(32,40)</f>
+        <v>36</v>
       </c>
       <c r="G9" s="24">
         <v>2</v>
@@ -2064,59 +2076,59 @@
         <v>0</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" ref="K9:K41" si="0">C9*$B$8</f>
-        <v>667.8</v>
-      </c>
-      <c r="L9" s="22">
-        <f t="shared" ref="L9:L41" si="1">D9*$B$8</f>
-        <v>699.6</v>
-      </c>
-      <c r="M9" s="22">
-        <f t="shared" ref="M9:M41" si="2">E9*$B$8</f>
-        <v>620.1</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" ref="N9:N41" si="3">F9*$B$8</f>
-        <v>620.1</v>
-      </c>
-      <c r="O9" s="51">
+        <f ca="1">C9*$B$8</f>
+        <v>508.8</v>
+      </c>
+      <c r="L9" s="22" t="e">
+        <f>#REF!*$B$8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="22" t="e">
+        <f>#REF!*$B$8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="22" t="e">
+        <f>#REF!*$B$8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="50">
         <f t="shared" ref="O9:O41" si="4">$B$8*G9*0.5</f>
         <v>15.9</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="50">
         <f t="shared" ref="P9:P41" si="5">$B$8*H9*0.5</f>
         <v>31.8</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="50">
         <f t="shared" ref="Q9:Q41" si="6">$B$8*I9*0.5</f>
         <v>0</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="50">
         <f t="shared" ref="R9:R41" si="7">$B$8*J9*0.5</f>
         <v>0</v>
       </c>
-      <c r="S9" s="65">
-        <f t="shared" ref="S9:S41" si="8">K9+O9</f>
-        <v>683.7</v>
-      </c>
-      <c r="T9" s="65">
+      <c r="S9" s="64">
+        <f ca="1" t="shared" ref="S9:S41" si="8">K9+O9</f>
+        <v>524.7</v>
+      </c>
+      <c r="T9" s="64" t="e">
         <f t="shared" ref="T9:T41" si="9">L9+P9</f>
-        <v>731.4</v>
-      </c>
-      <c r="U9" s="65">
+        <v>#REF!</v>
+      </c>
+      <c r="U9" s="64" t="e">
         <f t="shared" ref="U9:U41" si="10">M9+Q9</f>
-        <v>620.1</v>
-      </c>
-      <c r="V9" s="65">
+        <v>#REF!</v>
+      </c>
+      <c r="V9" s="64" t="e">
         <f t="shared" ref="V9:V41" si="11">N9+R9</f>
-        <v>620.1</v>
-      </c>
-      <c r="W9" s="66">
-        <f t="shared" ref="W9:W41" si="12">O9+S9</f>
-        <v>699.6</v>
+        <v>#REF!</v>
+      </c>
+      <c r="W9" s="65">
+        <f ca="1" t="shared" ref="W9:W41" si="12">O9+S9</f>
+        <v>540.6</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:23">
+    <row r="10" s="1" customFormat="1" ht="21" spans="1:23">
       <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
@@ -2124,16 +2136,20 @@
         <v>19.1</v>
       </c>
       <c r="C10" s="23">
-        <v>49</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D10" s="23">
+        <f ca="1" t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="23">
+        <f ca="1" t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E10" s="23">
-        <v>39</v>
-      </c>
       <c r="F10" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="G10" s="24">
         <v>9</v>
@@ -2148,59 +2164,59 @@
         <v>0</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="0"/>
-        <v>779.1</v>
+        <f ca="1" t="shared" ref="K9:K41" si="13">C10*$B$8</f>
+        <v>508.8</v>
       </c>
       <c r="L10" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" ref="L9:L41" si="14">D10*$B$8</f>
+        <v>556.5</v>
+      </c>
+      <c r="M10" s="22">
+        <f ca="1" t="shared" ref="M9:M41" si="15">E10*$B$8</f>
         <v>620.1</v>
       </c>
-      <c r="M10" s="22">
-        <f t="shared" si="2"/>
-        <v>620.1</v>
-      </c>
       <c r="N10" s="22">
-        <f t="shared" si="3"/>
-        <v>620.1</v>
-      </c>
-      <c r="O10" s="51">
+        <f ca="1" t="shared" ref="N9:N41" si="16">F10*$B$8</f>
+        <v>524.7</v>
+      </c>
+      <c r="O10" s="50">
         <f>$B$8*G10*0.5</f>
         <v>71.55</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S10" s="65">
-        <f t="shared" si="8"/>
-        <v>850.65</v>
-      </c>
-      <c r="T10" s="65">
-        <f t="shared" si="9"/>
+      <c r="S10" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>580.35</v>
+      </c>
+      <c r="T10" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>556.5</v>
+      </c>
+      <c r="U10" s="64">
+        <f ca="1" t="shared" si="10"/>
         <v>620.1</v>
       </c>
-      <c r="U10" s="65">
-        <f t="shared" si="10"/>
-        <v>620.1</v>
-      </c>
-      <c r="V10" s="65">
-        <f t="shared" si="11"/>
-        <v>620.1</v>
-      </c>
-      <c r="W10" s="66">
-        <f t="shared" si="12"/>
-        <v>922.2</v>
+      <c r="V10" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>524.7</v>
+      </c>
+      <c r="W10" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>651.9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
@@ -2208,16 +2224,20 @@
         <v>6.9</v>
       </c>
       <c r="C11" s="23">
-        <v>54</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="D11" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="E11" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="F11" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="G11" s="24">
         <v>14</v>
@@ -2232,60 +2252,61 @@
         <v>5</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="0"/>
-        <v>858.6</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>604.2</v>
       </c>
       <c r="L11" s="22">
-        <f t="shared" si="1"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>620.1</v>
       </c>
       <c r="M11" s="22">
-        <f t="shared" si="2"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>540.6</v>
       </c>
       <c r="N11" s="22">
-        <f t="shared" si="3"/>
-        <v>715.5</v>
-      </c>
-      <c r="O11" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>572.4</v>
+      </c>
+      <c r="O11" s="50">
         <f t="shared" si="4"/>
         <v>111.3</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="50">
         <f t="shared" si="6"/>
         <v>39.75</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="50">
         <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
-      <c r="S11" s="65">
-        <f>K11+O11</f>
-        <v>969.9</v>
-      </c>
-      <c r="T11" s="65">
-        <f t="shared" si="9"/>
-        <v>397.5</v>
-      </c>
-      <c r="U11" s="65">
-        <f t="shared" si="10"/>
-        <v>755.25</v>
-      </c>
-      <c r="V11" s="65">
-        <f t="shared" si="11"/>
-        <v>755.25</v>
-      </c>
-      <c r="W11" s="66">
-        <f t="shared" si="12"/>
-        <v>1081.2</v>
-      </c>
-      <c r="X11" s="67"/>
+      <c r="S11" s="64">
+        <f ca="1">K11+O11</f>
+        <v>715.5</v>
+      </c>
+      <c r="T11" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U11" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>580.35</v>
+      </c>
+      <c r="V11" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>612.15</v>
+      </c>
+      <c r="W11" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>826.8</v>
+      </c>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="76"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
@@ -2293,16 +2314,20 @@
         <v>14.2</v>
       </c>
       <c r="C12" s="23">
-        <v>44</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="D12" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="E12" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="F12" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="G12" s="24">
         <v>4</v>
@@ -2317,58 +2342,59 @@
         <v>0</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="0"/>
-        <v>699.6</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>620.1</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" si="1"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>588.3</v>
       </c>
       <c r="M12" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
       </c>
       <c r="N12" s="22">
-        <f t="shared" si="3"/>
-        <v>636</v>
-      </c>
-      <c r="O12" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>508.8</v>
+      </c>
+      <c r="O12" s="50">
         <f t="shared" si="4"/>
         <v>31.8</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="50">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S12" s="65">
-        <f t="shared" si="8"/>
-        <v>731.4</v>
-      </c>
-      <c r="T12" s="65">
-        <f t="shared" si="9"/>
-        <v>755.25</v>
-      </c>
-      <c r="U12" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V12" s="65">
-        <f t="shared" si="11"/>
-        <v>636</v>
-      </c>
-      <c r="W12" s="66">
-        <f t="shared" si="12"/>
-        <v>763.2</v>
-      </c>
-      <c r="X12" s="67"/>
+      <c r="S12" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>651.9</v>
+      </c>
+      <c r="T12" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>628.05</v>
+      </c>
+      <c r="U12" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>620.1</v>
+      </c>
+      <c r="V12" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>508.8</v>
+      </c>
+      <c r="W12" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>683.7</v>
+      </c>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="76"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="25" t="s">
@@ -2378,16 +2404,20 @@
         <v>15.2</v>
       </c>
       <c r="C13" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="D13" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="E13" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="F13" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="G13" s="24">
         <v>0</v>
@@ -2402,58 +2432,58 @@
         <v>0</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="0"/>
-        <v>620.1</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" si="1"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>556.5</v>
       </c>
       <c r="M13" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>508.8</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="3"/>
-        <v>636</v>
-      </c>
-      <c r="O13" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>588.3</v>
+      </c>
+      <c r="O13" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="50">
         <f t="shared" si="5"/>
         <v>63.6</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13" s="65">
-        <f t="shared" si="8"/>
+      <c r="S13" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>524.7</v>
+      </c>
+      <c r="T13" s="64">
+        <f ca="1" t="shared" si="9"/>
         <v>620.1</v>
       </c>
-      <c r="T13" s="65">
-        <f t="shared" si="9"/>
-        <v>826.8</v>
-      </c>
-      <c r="U13" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V13" s="65">
-        <f t="shared" si="11"/>
-        <v>636</v>
-      </c>
-      <c r="W13" s="66">
-        <f t="shared" si="12"/>
-        <v>620.1</v>
-      </c>
-      <c r="X13" s="67"/>
+      <c r="U13" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>508.8</v>
+      </c>
+      <c r="V13" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>588.3</v>
+      </c>
+      <c r="W13" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>524.7</v>
+      </c>
+      <c r="X13" s="66"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="25" t="s">
@@ -2463,17 +2493,21 @@
         <v>45.3</v>
       </c>
       <c r="C14" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="D14" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E14" s="23">
+        <f ca="1" t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="23">
+        <f ca="1" t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F14" s="23">
-        <v>40</v>
-      </c>
       <c r="G14" s="24">
         <v>0</v>
       </c>
@@ -2487,58 +2521,58 @@
         <v>0</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="0"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>588.3</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="1"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>636</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="2"/>
+        <f ca="1" t="shared" si="15"/>
+        <v>524.7</v>
+      </c>
+      <c r="N14" s="22">
+        <f ca="1" t="shared" si="16"/>
         <v>636</v>
       </c>
-      <c r="N14" s="22">
-        <f t="shared" si="3"/>
+      <c r="O14" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>588.3</v>
+      </c>
+      <c r="T14" s="64">
+        <f ca="1" t="shared" si="9"/>
         <v>636</v>
       </c>
-      <c r="O14" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="65">
-        <f t="shared" si="8"/>
-        <v>397.5</v>
-      </c>
-      <c r="T14" s="65">
-        <f t="shared" si="9"/>
-        <v>572.4</v>
-      </c>
-      <c r="U14" s="65">
-        <f t="shared" si="10"/>
+      <c r="U14" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>524.7</v>
+      </c>
+      <c r="V14" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>636</v>
       </c>
-      <c r="V14" s="65">
-        <f t="shared" si="11"/>
-        <v>636</v>
-      </c>
-      <c r="W14" s="66">
-        <f t="shared" si="12"/>
-        <v>397.5</v>
-      </c>
-      <c r="X14" s="67"/>
+      <c r="W14" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>588.3</v>
+      </c>
+      <c r="X14" s="66"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="25" t="s">
@@ -2548,16 +2582,20 @@
         <v>16.5</v>
       </c>
       <c r="C15" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D15" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="E15" s="23">
-        <v>41</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="F15" s="23">
-        <v>41</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -2572,58 +2610,58 @@
         <v>1</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="0"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>556.5</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="1"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>588.3</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="2"/>
-        <v>651.9</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>588.3</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="3"/>
-        <v>651.9</v>
-      </c>
-      <c r="O15" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>572.4</v>
+      </c>
+      <c r="O15" s="50">
         <f t="shared" si="4"/>
         <v>39.75</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="50">
         <f t="shared" si="6"/>
         <v>7.95</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="50">
         <f t="shared" si="7"/>
         <v>7.95</v>
       </c>
-      <c r="S15" s="65">
-        <f t="shared" si="8"/>
-        <v>755.25</v>
-      </c>
-      <c r="T15" s="65">
-        <f t="shared" si="9"/>
-        <v>397.5</v>
-      </c>
-      <c r="U15" s="65">
-        <f t="shared" si="10"/>
-        <v>659.85</v>
-      </c>
-      <c r="V15" s="65">
-        <f t="shared" si="11"/>
-        <v>659.85</v>
-      </c>
-      <c r="W15" s="66">
-        <f t="shared" si="12"/>
-        <v>795</v>
-      </c>
-      <c r="X15" s="67"/>
+      <c r="S15" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>596.25</v>
+      </c>
+      <c r="T15" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>588.3</v>
+      </c>
+      <c r="U15" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>596.25</v>
+      </c>
+      <c r="V15" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>580.35</v>
+      </c>
+      <c r="W15" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>636</v>
+      </c>
+      <c r="X15" s="66"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="25" t="s">
@@ -2633,16 +2671,20 @@
         <v>7.5</v>
       </c>
       <c r="C16" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D16" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E16" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="F16" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="G16" s="24">
         <v>8</v>
@@ -2657,58 +2699,58 @@
         <v>2</v>
       </c>
       <c r="K16" s="22">
-        <f t="shared" si="0"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>572.4</v>
       </c>
       <c r="L16" s="22">
-        <f t="shared" si="1"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>636</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="2"/>
-        <v>667.8</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="3"/>
-        <v>667.8</v>
-      </c>
-      <c r="O16" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>588.3</v>
+      </c>
+      <c r="O16" s="50">
         <f t="shared" si="4"/>
         <v>63.6</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="50">
         <f t="shared" si="5"/>
         <v>63.6</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="50">
         <f t="shared" si="6"/>
         <v>15.9</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="50">
         <f t="shared" si="7"/>
         <v>15.9</v>
       </c>
-      <c r="S16" s="65">
-        <f t="shared" si="8"/>
-        <v>826.8</v>
-      </c>
-      <c r="T16" s="65">
-        <f t="shared" si="9"/>
-        <v>826.8</v>
-      </c>
-      <c r="U16" s="65">
-        <f t="shared" si="10"/>
-        <v>683.7</v>
-      </c>
-      <c r="V16" s="65">
-        <f t="shared" si="11"/>
-        <v>683.7</v>
-      </c>
-      <c r="W16" s="66">
-        <f t="shared" si="12"/>
-        <v>890.4</v>
-      </c>
-      <c r="X16" s="67"/>
+      <c r="S16" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>636</v>
+      </c>
+      <c r="T16" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>699.6</v>
+      </c>
+      <c r="U16" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>636</v>
+      </c>
+      <c r="V16" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>604.2</v>
+      </c>
+      <c r="W16" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>699.6</v>
+      </c>
+      <c r="X16" s="66"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="25" t="s">
@@ -2718,16 +2760,20 @@
         <v>25.4</v>
       </c>
       <c r="C17" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D17" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="E17" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="F17" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="G17" s="24">
         <v>0</v>
@@ -2742,58 +2788,58 @@
         <v>0</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="0"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>636</v>
       </c>
       <c r="L17" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
+        <v>524.7</v>
+      </c>
+      <c r="M17" s="22">
+        <f ca="1" t="shared" si="15"/>
+        <v>556.5</v>
+      </c>
+      <c r="N17" s="22">
+        <f ca="1" t="shared" si="16"/>
+        <v>604.2</v>
+      </c>
+      <c r="O17" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>636</v>
       </c>
-      <c r="M17" s="22">
-        <f t="shared" si="2"/>
-        <v>620.1</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="3"/>
+      <c r="T17" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>524.7</v>
+      </c>
+      <c r="U17" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>556.5</v>
+      </c>
+      <c r="V17" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>604.2</v>
+      </c>
+      <c r="W17" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="O17" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="65">
-        <f t="shared" si="8"/>
-        <v>572.4</v>
-      </c>
-      <c r="T17" s="65">
-        <f t="shared" si="9"/>
-        <v>636</v>
-      </c>
-      <c r="U17" s="65">
-        <f t="shared" si="10"/>
-        <v>620.1</v>
-      </c>
-      <c r="V17" s="65">
-        <f t="shared" si="11"/>
-        <v>636</v>
-      </c>
-      <c r="W17" s="66">
-        <f t="shared" si="12"/>
-        <v>572.4</v>
-      </c>
-      <c r="X17" s="67"/>
+      <c r="X17" s="66"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="25" t="s">
@@ -2803,16 +2849,20 @@
         <v>8.44</v>
       </c>
       <c r="C18" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="D18" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="E18" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="F18" s="23">
-        <v>51</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="G18" s="24">
         <v>0</v>
@@ -2827,58 +2877,58 @@
         <v>11</v>
       </c>
       <c r="K18" s="22">
-        <f t="shared" si="0"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>540.6</v>
       </c>
       <c r="L18" s="22">
-        <f t="shared" si="1"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>508.8</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="2"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>508.8</v>
       </c>
       <c r="N18" s="22">
-        <f t="shared" si="3"/>
-        <v>810.9</v>
-      </c>
-      <c r="O18" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>556.5</v>
+      </c>
+      <c r="O18" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="50">
         <f t="shared" si="7"/>
         <v>87.45</v>
       </c>
-      <c r="S18" s="65">
-        <f t="shared" si="8"/>
-        <v>397.5</v>
-      </c>
-      <c r="T18" s="65">
-        <f t="shared" si="9"/>
-        <v>636</v>
-      </c>
-      <c r="U18" s="65">
-        <f t="shared" si="10"/>
-        <v>397.5</v>
-      </c>
-      <c r="V18" s="65">
-        <f t="shared" si="11"/>
-        <v>898.35</v>
-      </c>
-      <c r="W18" s="66">
-        <f t="shared" si="12"/>
-        <v>397.5</v>
-      </c>
-      <c r="X18" s="67"/>
+      <c r="S18" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>540.6</v>
+      </c>
+      <c r="T18" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>508.8</v>
+      </c>
+      <c r="U18" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>508.8</v>
+      </c>
+      <c r="V18" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>643.95</v>
+      </c>
+      <c r="W18" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>540.6</v>
+      </c>
+      <c r="X18" s="66"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="25" t="s">
@@ -2888,16 +2938,20 @@
         <v>4.59</v>
       </c>
       <c r="C19" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" ref="C19:C28" si="17">RANDBETWEEN(32,40)</f>
+        <v>33</v>
       </c>
       <c r="D19" s="23">
+        <f ca="1" t="shared" ref="D19:D28" si="18">RANDBETWEEN(32,40)</f>
+        <v>32</v>
+      </c>
+      <c r="E19" s="23">
+        <f ca="1" t="shared" ref="E19:E28" si="19">RANDBETWEEN(32,40)</f>
         <v>40</v>
       </c>
-      <c r="E19" s="23">
-        <v>45</v>
-      </c>
       <c r="F19" s="23">
-        <v>27</v>
+        <f ca="1" t="shared" ref="F19:F28" si="20">RANDBETWEEN(32,40)</f>
+        <v>40</v>
       </c>
       <c r="G19" s="24">
         <v>8</v>
@@ -2912,58 +2966,58 @@
         <v>0</v>
       </c>
       <c r="K19" s="22">
-        <f t="shared" si="0"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
+        <v>508.8</v>
+      </c>
+      <c r="M19" s="22">
+        <f ca="1" t="shared" si="15"/>
         <v>636</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" si="2"/>
-        <v>715.5</v>
-      </c>
       <c r="N19" s="22">
-        <f t="shared" si="3"/>
-        <v>429.3</v>
-      </c>
-      <c r="O19" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>636</v>
+      </c>
+      <c r="O19" s="50">
         <f t="shared" si="4"/>
         <v>63.6</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="50">
         <f t="shared" si="6"/>
         <v>39.75</v>
       </c>
-      <c r="R19" s="51">
+      <c r="R19" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S19" s="65">
-        <f t="shared" si="8"/>
-        <v>826.8</v>
-      </c>
-      <c r="T19" s="65">
-        <f t="shared" si="9"/>
+      <c r="S19" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>588.3</v>
+      </c>
+      <c r="T19" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>508.8</v>
+      </c>
+      <c r="U19" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>675.75</v>
+      </c>
+      <c r="V19" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>636</v>
       </c>
-      <c r="U19" s="65">
-        <f t="shared" si="10"/>
-        <v>755.25</v>
-      </c>
-      <c r="V19" s="65">
-        <f t="shared" si="11"/>
-        <v>429.3</v>
-      </c>
-      <c r="W19" s="66">
-        <f t="shared" si="12"/>
-        <v>890.4</v>
-      </c>
-      <c r="X19" s="67"/>
+      <c r="W19" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>651.9</v>
+      </c>
+      <c r="X19" s="66"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="25" t="s">
@@ -2973,16 +3027,20 @@
         <v>6.6</v>
       </c>
       <c r="C20" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>32</v>
       </c>
       <c r="D20" s="23">
-        <v>51</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>35</v>
       </c>
       <c r="E20" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>39</v>
       </c>
       <c r="F20" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>36</v>
       </c>
       <c r="G20" s="24">
         <v>0</v>
@@ -2997,58 +3055,58 @@
         <v>0</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="0"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>508.8</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="1"/>
-        <v>810.9</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>556.5</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="2"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="3"/>
-        <v>588.3</v>
-      </c>
-      <c r="O20" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>572.4</v>
+      </c>
+      <c r="O20" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="50">
         <f t="shared" si="5"/>
         <v>87.45</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <f t="shared" si="6"/>
         <v>63.6</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R20" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20" s="65">
-        <f t="shared" si="8"/>
-        <v>636</v>
-      </c>
-      <c r="T20" s="65">
-        <f t="shared" si="9"/>
-        <v>898.35</v>
-      </c>
-      <c r="U20" s="65">
-        <f t="shared" si="10"/>
-        <v>826.8</v>
-      </c>
-      <c r="V20" s="65">
-        <f t="shared" si="11"/>
-        <v>588.3</v>
-      </c>
-      <c r="W20" s="66">
-        <f t="shared" si="12"/>
-        <v>636</v>
-      </c>
-      <c r="X20" s="67"/>
+      <c r="S20" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>508.8</v>
+      </c>
+      <c r="T20" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>643.95</v>
+      </c>
+      <c r="U20" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>683.7</v>
+      </c>
+      <c r="V20" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>572.4</v>
+      </c>
+      <c r="W20" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>508.8</v>
+      </c>
+      <c r="X20" s="66"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="25" t="s">
@@ -3058,16 +3116,20 @@
         <v>5.7</v>
       </c>
       <c r="C21" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>37</v>
       </c>
       <c r="D21" s="23">
-        <v>27</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>39</v>
       </c>
       <c r="E21" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>37</v>
       </c>
       <c r="F21" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>39</v>
       </c>
       <c r="G21" s="24">
         <v>0</v>
@@ -3082,58 +3144,58 @@
         <v>0</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="0"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>588.3</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="1"/>
-        <v>429.3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>620.1</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" si="2"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>588.3</v>
       </c>
       <c r="N21" s="22">
-        <f t="shared" si="3"/>
+        <f ca="1" t="shared" si="16"/>
+        <v>620.1</v>
+      </c>
+      <c r="O21" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>588.3</v>
       </c>
-      <c r="O21" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="65">
-        <f t="shared" si="8"/>
-        <v>636</v>
-      </c>
-      <c r="T21" s="65">
-        <f t="shared" si="9"/>
-        <v>429.3</v>
-      </c>
-      <c r="U21" s="65">
-        <f t="shared" si="10"/>
-        <v>572.4</v>
-      </c>
-      <c r="V21" s="65">
-        <f t="shared" si="11"/>
+      <c r="T21" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U21" s="64">
+        <f ca="1" t="shared" si="10"/>
         <v>588.3</v>
       </c>
-      <c r="W21" s="66">
-        <f t="shared" si="12"/>
-        <v>636</v>
-      </c>
-      <c r="X21" s="67"/>
+      <c r="V21" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>620.1</v>
+      </c>
+      <c r="W21" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>588.3</v>
+      </c>
+      <c r="X21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="25" t="s">
@@ -3143,16 +3205,20 @@
         <v>42.6</v>
       </c>
       <c r="C22" s="23">
+        <f ca="1" t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="D22" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>33</v>
       </c>
       <c r="E22" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>35</v>
       </c>
       <c r="F22" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>38</v>
       </c>
       <c r="G22" s="24">
         <v>0</v>
@@ -3167,58 +3233,58 @@
         <v>0</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="0"/>
+        <f ca="1" t="shared" si="13"/>
         <v>636</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="1"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>524.7</v>
       </c>
       <c r="M22" s="22">
-        <f t="shared" si="2"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>556.5</v>
       </c>
       <c r="N22" s="22">
-        <f t="shared" si="3"/>
-        <v>572.4</v>
-      </c>
-      <c r="O22" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>604.2</v>
+      </c>
+      <c r="O22" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S22" s="65">
-        <f t="shared" si="8"/>
+      <c r="S22" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>636</v>
       </c>
-      <c r="T22" s="65">
-        <f t="shared" si="9"/>
-        <v>588.3</v>
-      </c>
-      <c r="U22" s="65">
-        <f t="shared" si="10"/>
-        <v>397.5</v>
-      </c>
-      <c r="V22" s="65">
-        <f t="shared" si="11"/>
-        <v>572.4</v>
-      </c>
-      <c r="W22" s="66">
-        <f t="shared" si="12"/>
+      <c r="T22" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>524.7</v>
+      </c>
+      <c r="U22" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>556.5</v>
+      </c>
+      <c r="V22" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>604.2</v>
+      </c>
+      <c r="W22" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="X22" s="67"/>
+      <c r="X22" s="66"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="25" t="s">
@@ -3228,16 +3294,20 @@
         <v>14.3</v>
       </c>
       <c r="C23" s="23">
-        <v>51</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>34</v>
       </c>
       <c r="D23" s="23">
+        <f ca="1" t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="E23" s="23">
+        <f ca="1" t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="23">
+        <f ca="1" t="shared" si="20"/>
         <v>37</v>
-      </c>
-      <c r="E23" s="23">
-        <v>48</v>
-      </c>
-      <c r="F23" s="23">
-        <v>27</v>
       </c>
       <c r="G23" s="24">
         <v>11</v>
@@ -3252,58 +3322,58 @@
         <v>0</v>
       </c>
       <c r="K23" s="22">
-        <f t="shared" si="0"/>
-        <v>810.9</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>540.6</v>
       </c>
       <c r="L23" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
+        <v>620.1</v>
+      </c>
+      <c r="M23" s="22">
+        <f ca="1" t="shared" si="15"/>
+        <v>636</v>
+      </c>
+      <c r="N23" s="22">
+        <f ca="1" t="shared" si="16"/>
         <v>588.3</v>
       </c>
-      <c r="M23" s="22">
-        <f t="shared" si="2"/>
-        <v>763.2</v>
-      </c>
-      <c r="N23" s="22">
-        <f t="shared" si="3"/>
-        <v>429.3</v>
-      </c>
-      <c r="O23" s="51">
+      <c r="O23" s="50">
         <f t="shared" si="4"/>
         <v>87.45</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="50">
         <f t="shared" si="6"/>
         <v>63.6</v>
       </c>
-      <c r="R23" s="51">
+      <c r="R23" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S23" s="65">
-        <f t="shared" si="8"/>
-        <v>898.35</v>
-      </c>
-      <c r="T23" s="65">
-        <f t="shared" si="9"/>
+      <c r="S23" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>628.05</v>
+      </c>
+      <c r="T23" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U23" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>699.6</v>
+      </c>
+      <c r="V23" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>588.3</v>
       </c>
-      <c r="U23" s="65">
-        <f t="shared" si="10"/>
-        <v>826.8</v>
-      </c>
-      <c r="V23" s="65">
-        <f t="shared" si="11"/>
-        <v>429.3</v>
-      </c>
-      <c r="W23" s="66">
-        <f t="shared" si="12"/>
-        <v>985.8</v>
-      </c>
-      <c r="X23" s="67"/>
+      <c r="W23" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>715.5</v>
+      </c>
+      <c r="X23" s="66"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="25" t="s">
@@ -3313,16 +3383,20 @@
         <v>15.2</v>
       </c>
       <c r="C24" s="23">
-        <v>27</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>36</v>
       </c>
       <c r="D24" s="23">
+        <f ca="1" t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="E24" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>33</v>
       </c>
       <c r="F24" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>35</v>
       </c>
       <c r="G24" s="24">
         <v>0</v>
@@ -3337,58 +3411,58 @@
         <v>0</v>
       </c>
       <c r="K24" s="22">
-        <f t="shared" si="0"/>
-        <v>429.3</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>572.4</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
         <v>572.4</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>524.7</v>
       </c>
       <c r="N24" s="22">
-        <f t="shared" si="3"/>
-        <v>588.3</v>
-      </c>
-      <c r="O24" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>556.5</v>
+      </c>
+      <c r="O24" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="51">
+      <c r="P24" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S24" s="65">
-        <f t="shared" si="8"/>
-        <v>429.3</v>
-      </c>
-      <c r="T24" s="65">
-        <f t="shared" si="9"/>
+      <c r="S24" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>572.4</v>
       </c>
-      <c r="U24" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V24" s="65">
-        <f t="shared" si="11"/>
-        <v>588.3</v>
-      </c>
-      <c r="W24" s="66">
-        <f t="shared" si="12"/>
-        <v>429.3</v>
-      </c>
-      <c r="X24" s="67"/>
+      <c r="T24" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>572.4</v>
+      </c>
+      <c r="U24" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>524.7</v>
+      </c>
+      <c r="V24" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>556.5</v>
+      </c>
+      <c r="W24" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>572.4</v>
+      </c>
+      <c r="X24" s="66"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="25" t="s">
@@ -3398,16 +3472,20 @@
         <v>15.2</v>
       </c>
       <c r="C25" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>36</v>
       </c>
       <c r="D25" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>34</v>
       </c>
       <c r="E25" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>35</v>
       </c>
       <c r="F25" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
@@ -3422,58 +3500,58 @@
         <v>0</v>
       </c>
       <c r="K25" s="22">
-        <f t="shared" si="0"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>572.4</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="1"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>540.6</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>556.5</v>
       </c>
       <c r="N25" s="22">
-        <f t="shared" si="3"/>
-        <v>588.3</v>
-      </c>
-      <c r="O25" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>524.7</v>
+      </c>
+      <c r="O25" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="50">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S25" s="65">
-        <f t="shared" si="8"/>
-        <v>588.3</v>
-      </c>
-      <c r="T25" s="65">
-        <f t="shared" si="9"/>
-        <v>755.25</v>
-      </c>
-      <c r="U25" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V25" s="65">
-        <f t="shared" si="11"/>
-        <v>588.3</v>
-      </c>
-      <c r="W25" s="66">
-        <f t="shared" si="12"/>
-        <v>588.3</v>
-      </c>
-      <c r="X25" s="67"/>
+      <c r="S25" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>572.4</v>
+      </c>
+      <c r="T25" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>580.35</v>
+      </c>
+      <c r="U25" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>556.5</v>
+      </c>
+      <c r="V25" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>524.7</v>
+      </c>
+      <c r="W25" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>572.4</v>
+      </c>
+      <c r="X25" s="66"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="25" t="s">
@@ -3483,15 +3561,19 @@
         <v>16.4</v>
       </c>
       <c r="C26" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>38</v>
       </c>
       <c r="D26" s="23">
-        <v>39</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>34</v>
       </c>
       <c r="E26" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>34</v>
       </c>
       <c r="F26" s="23">
+        <f ca="1" t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="G26" s="24">
@@ -3507,58 +3589,58 @@
         <v>0</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="0"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>604.2</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="1"/>
-        <v>620.1</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>540.6</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>540.6</v>
       </c>
       <c r="N26" s="22">
-        <f t="shared" si="3"/>
+        <f ca="1" t="shared" si="16"/>
         <v>572.4</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S26" s="65">
-        <f t="shared" si="8"/>
-        <v>588.3</v>
-      </c>
-      <c r="T26" s="65">
-        <f t="shared" si="9"/>
-        <v>620.1</v>
-      </c>
-      <c r="U26" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V26" s="65">
-        <f t="shared" si="11"/>
+      <c r="S26" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>604.2</v>
+      </c>
+      <c r="T26" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>540.6</v>
+      </c>
+      <c r="U26" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>540.6</v>
+      </c>
+      <c r="V26" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>572.4</v>
       </c>
-      <c r="W26" s="66">
-        <f t="shared" si="12"/>
-        <v>588.3</v>
-      </c>
-      <c r="X26" s="67"/>
+      <c r="W26" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>604.2</v>
+      </c>
+      <c r="X26" s="66"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="25" t="s">
@@ -3568,16 +3650,20 @@
         <v>12.12</v>
       </c>
       <c r="C27" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>34</v>
       </c>
       <c r="D27" s="23">
+        <f ca="1" t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="E27" s="23">
+        <f ca="1" t="shared" si="19"/>
         <v>39</v>
       </c>
-      <c r="E27" s="23">
-        <v>51</v>
-      </c>
       <c r="F27" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>32</v>
       </c>
       <c r="G27" s="24">
         <v>0</v>
@@ -3592,58 +3678,58 @@
         <v>8</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" si="0"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>540.6</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
+        <v>508.8</v>
+      </c>
+      <c r="M27" s="22">
+        <f ca="1" t="shared" si="15"/>
         <v>620.1</v>
       </c>
-      <c r="M27" s="22">
-        <f t="shared" si="2"/>
-        <v>810.9</v>
-      </c>
       <c r="N27" s="22">
-        <f t="shared" si="3"/>
-        <v>763.2</v>
-      </c>
-      <c r="O27" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>508.8</v>
+      </c>
+      <c r="O27" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="50">
         <f t="shared" si="6"/>
         <v>87.45</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="50">
         <f t="shared" si="7"/>
         <v>63.6</v>
       </c>
-      <c r="S27" s="65">
-        <f t="shared" si="8"/>
+      <c r="S27" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>540.6</v>
+      </c>
+      <c r="T27" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>508.8</v>
+      </c>
+      <c r="U27" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>707.55</v>
+      </c>
+      <c r="V27" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>572.4</v>
       </c>
-      <c r="T27" s="65">
-        <f t="shared" si="9"/>
-        <v>620.1</v>
-      </c>
-      <c r="U27" s="65">
-        <f t="shared" si="10"/>
-        <v>898.35</v>
-      </c>
-      <c r="V27" s="65">
-        <f t="shared" si="11"/>
-        <v>826.8</v>
-      </c>
-      <c r="W27" s="66">
-        <f t="shared" si="12"/>
-        <v>572.4</v>
-      </c>
-      <c r="X27" s="67"/>
+      <c r="W27" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>540.6</v>
+      </c>
+      <c r="X27" s="66"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="25" t="s">
@@ -3653,16 +3739,20 @@
         <v>13.5</v>
       </c>
       <c r="C28" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>39</v>
       </c>
       <c r="D28" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>35</v>
       </c>
       <c r="E28" s="23">
-        <v>27</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>37</v>
       </c>
       <c r="F28" s="23">
-        <v>47</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>36</v>
       </c>
       <c r="G28" s="24">
         <v>0</v>
@@ -3677,58 +3767,58 @@
         <v>7</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="0"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>620.1</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="1"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>556.5</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="2"/>
-        <v>429.3</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>588.3</v>
       </c>
       <c r="N28" s="22">
-        <f t="shared" si="3"/>
-        <v>747.3</v>
-      </c>
-      <c r="O28" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>572.4</v>
+      </c>
+      <c r="O28" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="50">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="50">
         <f t="shared" si="7"/>
         <v>55.65</v>
       </c>
-      <c r="S28" s="65">
-        <f t="shared" si="8"/>
-        <v>397.5</v>
-      </c>
-      <c r="T28" s="65">
-        <f t="shared" si="9"/>
-        <v>755.25</v>
-      </c>
-      <c r="U28" s="65">
-        <f t="shared" si="10"/>
-        <v>429.3</v>
-      </c>
-      <c r="V28" s="65">
-        <f t="shared" si="11"/>
-        <v>802.95</v>
-      </c>
-      <c r="W28" s="66">
-        <f t="shared" si="12"/>
-        <v>397.5</v>
-      </c>
-      <c r="X28" s="67"/>
+      <c r="S28" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>620.1</v>
+      </c>
+      <c r="T28" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>596.25</v>
+      </c>
+      <c r="U28" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>588.3</v>
+      </c>
+      <c r="V28" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>628.05</v>
+      </c>
+      <c r="W28" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>620.1</v>
+      </c>
+      <c r="X28" s="66"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="25" t="s">
@@ -3738,16 +3828,20 @@
         <v>8.6</v>
       </c>
       <c r="C29" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" ref="C29:C41" si="21">RANDBETWEEN(32,40)</f>
+        <v>35</v>
       </c>
       <c r="D29" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" ref="D29:D41" si="22">RANDBETWEEN(32,40)</f>
+        <v>34</v>
       </c>
       <c r="E29" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" ref="E29:E41" si="23">RANDBETWEEN(32,40)</f>
+        <v>33</v>
       </c>
       <c r="F29" s="23">
-        <v>54</v>
+        <f ca="1" t="shared" ref="F29:F41" si="24">RANDBETWEEN(32,40)</f>
+        <v>36</v>
       </c>
       <c r="G29" s="24">
         <v>5</v>
@@ -3762,58 +3856,58 @@
         <v>14</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="0"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>556.5</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="1"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>540.6</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="2"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>524.7</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="3"/>
-        <v>858.6</v>
-      </c>
-      <c r="O29" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>572.4</v>
+      </c>
+      <c r="O29" s="50">
         <f t="shared" si="4"/>
         <v>39.75</v>
       </c>
-      <c r="P29" s="51">
+      <c r="P29" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R29" s="51">
+      <c r="R29" s="50">
         <f t="shared" si="7"/>
         <v>111.3</v>
       </c>
-      <c r="S29" s="65">
-        <f t="shared" si="8"/>
-        <v>755.25</v>
-      </c>
-      <c r="T29" s="65">
-        <f t="shared" si="9"/>
+      <c r="S29" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>596.25</v>
+      </c>
+      <c r="T29" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>540.6</v>
+      </c>
+      <c r="U29" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>524.7</v>
+      </c>
+      <c r="V29" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>683.7</v>
+      </c>
+      <c r="W29" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="U29" s="65">
-        <f t="shared" si="10"/>
-        <v>588.3</v>
-      </c>
-      <c r="V29" s="65">
-        <f t="shared" si="11"/>
-        <v>969.9</v>
-      </c>
-      <c r="W29" s="66">
-        <f t="shared" si="12"/>
-        <v>795</v>
-      </c>
-      <c r="X29" s="67"/>
+      <c r="X29" s="66"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="25" t="s">
@@ -3823,16 +3917,20 @@
         <v>4.8</v>
       </c>
       <c r="C30" s="23">
+        <f ca="1" t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="D30" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="E30" s="23">
+        <f ca="1" t="shared" si="23"/>
+        <v>39</v>
+      </c>
+      <c r="F30" s="23">
+        <f ca="1" t="shared" si="24"/>
         <v>37</v>
-      </c>
-      <c r="F30" s="23">
-        <v>44</v>
       </c>
       <c r="G30" s="24">
         <v>0</v>
@@ -3847,58 +3945,58 @@
         <v>4</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="0"/>
+        <f ca="1" t="shared" si="13"/>
         <v>620.1</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="1"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>572.4</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="2"/>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
+      </c>
+      <c r="N30" s="22">
+        <f ca="1" t="shared" si="16"/>
         <v>588.3</v>
       </c>
-      <c r="N30" s="22">
-        <f t="shared" si="3"/>
-        <v>699.6</v>
-      </c>
-      <c r="O30" s="51">
+      <c r="O30" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="51">
+      <c r="P30" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R30" s="51">
+      <c r="R30" s="50">
         <f t="shared" si="7"/>
         <v>31.8</v>
       </c>
-      <c r="S30" s="65">
-        <f t="shared" si="8"/>
+      <c r="S30" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>620.1</v>
       </c>
-      <c r="T30" s="65">
-        <f t="shared" si="9"/>
-        <v>636</v>
-      </c>
-      <c r="U30" s="65">
-        <f t="shared" si="10"/>
-        <v>588.3</v>
-      </c>
-      <c r="V30" s="65">
-        <f t="shared" si="11"/>
-        <v>731.4</v>
-      </c>
-      <c r="W30" s="66">
-        <f t="shared" si="12"/>
+      <c r="T30" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>572.4</v>
+      </c>
+      <c r="U30" s="64">
+        <f ca="1" t="shared" si="10"/>
         <v>620.1</v>
       </c>
-      <c r="X30" s="67"/>
+      <c r="V30" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>620.1</v>
+      </c>
+      <c r="W30" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>620.1</v>
+      </c>
+      <c r="X30" s="66"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="25" t="s">
@@ -3908,17 +4006,21 @@
         <v>66.5</v>
       </c>
       <c r="C31" s="23">
+        <f ca="1" t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="D31" s="23">
+        <f ca="1" t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="E31" s="23">
+        <f ca="1" t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="F31" s="23">
+        <f ca="1" t="shared" si="24"/>
         <v>39</v>
       </c>
-      <c r="D31" s="23">
-        <v>40</v>
-      </c>
-      <c r="E31" s="23">
-        <v>36</v>
-      </c>
-      <c r="F31" s="23">
-        <v>39</v>
-      </c>
       <c r="G31" s="24">
         <v>0</v>
       </c>
@@ -3932,58 +4034,58 @@
         <v>0</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="0"/>
+        <f ca="1" t="shared" si="13"/>
+        <v>636</v>
+      </c>
+      <c r="L31" s="22">
+        <f ca="1" t="shared" si="14"/>
+        <v>636</v>
+      </c>
+      <c r="M31" s="22">
+        <f ca="1" t="shared" si="15"/>
+        <v>508.8</v>
+      </c>
+      <c r="N31" s="22">
+        <f ca="1" t="shared" si="16"/>
         <v>620.1</v>
       </c>
-      <c r="L31" s="22">
-        <f t="shared" si="1"/>
+      <c r="O31" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>636</v>
       </c>
-      <c r="M31" s="22">
-        <f t="shared" si="2"/>
-        <v>572.4</v>
-      </c>
-      <c r="N31" s="22">
-        <f t="shared" si="3"/>
+      <c r="T31" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>636</v>
+      </c>
+      <c r="U31" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>508.8</v>
+      </c>
+      <c r="V31" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>620.1</v>
       </c>
-      <c r="O31" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="65">
-        <f t="shared" si="8"/>
-        <v>620.1</v>
-      </c>
-      <c r="T31" s="65">
-        <f t="shared" si="9"/>
+      <c r="W31" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="U31" s="65">
-        <f t="shared" si="10"/>
-        <v>572.4</v>
-      </c>
-      <c r="V31" s="65">
-        <f t="shared" si="11"/>
-        <v>620.1</v>
-      </c>
-      <c r="W31" s="66">
-        <f t="shared" si="12"/>
-        <v>620.1</v>
-      </c>
-      <c r="X31" s="67"/>
+      <c r="X31" s="66"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="25" t="s">
@@ -3993,16 +4095,20 @@
         <v>25.4</v>
       </c>
       <c r="C32" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>38</v>
       </c>
       <c r="D32" s="23">
-        <v>41</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="E32" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>34</v>
       </c>
       <c r="F32" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>39</v>
       </c>
       <c r="G32" s="24">
         <v>5</v>
@@ -4017,58 +4123,58 @@
         <v>0</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="0"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>604.2</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="1"/>
-        <v>651.9</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>524.7</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" si="2"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>540.6</v>
       </c>
       <c r="N32" s="22">
-        <f t="shared" si="3"/>
-        <v>397.5</v>
-      </c>
-      <c r="O32" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>620.1</v>
+      </c>
+      <c r="O32" s="50">
         <f t="shared" si="4"/>
         <v>39.75</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32" s="50">
         <f t="shared" si="5"/>
         <v>7.95</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S32" s="65">
-        <f t="shared" si="8"/>
-        <v>755.25</v>
-      </c>
-      <c r="T32" s="65">
-        <f t="shared" si="9"/>
-        <v>659.85</v>
-      </c>
-      <c r="U32" s="65">
-        <f t="shared" si="10"/>
-        <v>572.4</v>
-      </c>
-      <c r="V32" s="65">
-        <f t="shared" si="11"/>
-        <v>397.5</v>
-      </c>
-      <c r="W32" s="66">
-        <f t="shared" si="12"/>
-        <v>795</v>
-      </c>
-      <c r="X32" s="67"/>
+      <c r="S32" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>643.95</v>
+      </c>
+      <c r="T32" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>532.65</v>
+      </c>
+      <c r="U32" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>540.6</v>
+      </c>
+      <c r="V32" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>620.1</v>
+      </c>
+      <c r="W32" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>683.7</v>
+      </c>
+      <c r="X32" s="66"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="25" t="s">
@@ -4078,16 +4184,20 @@
         <v>15.2</v>
       </c>
       <c r="C33" s="23">
+        <f ca="1" t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="D33" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>38</v>
       </c>
       <c r="E33" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>33</v>
       </c>
       <c r="F33" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>40</v>
       </c>
       <c r="G33" s="24">
         <v>0</v>
@@ -4102,58 +4212,58 @@
         <v>5</v>
       </c>
       <c r="K33" s="22">
-        <f t="shared" si="0"/>
+        <f ca="1" t="shared" si="13"/>
         <v>636</v>
       </c>
       <c r="L33" s="22">
-        <f t="shared" si="1"/>
-        <v>667.8</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>604.2</v>
       </c>
       <c r="M33" s="22">
-        <f t="shared" si="2"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>524.7</v>
       </c>
       <c r="N33" s="22">
-        <f t="shared" si="3"/>
-        <v>715.5</v>
-      </c>
-      <c r="O33" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>636</v>
+      </c>
+      <c r="O33" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P33" s="51">
+      <c r="P33" s="50">
         <f t="shared" si="5"/>
         <v>15.9</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R33" s="51">
+      <c r="R33" s="50">
         <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
-      <c r="S33" s="65">
-        <f t="shared" si="8"/>
+      <c r="S33" s="64">
+        <f ca="1" t="shared" si="8"/>
         <v>636</v>
       </c>
-      <c r="T33" s="65">
-        <f t="shared" si="9"/>
-        <v>683.7</v>
-      </c>
-      <c r="U33" s="65">
-        <f t="shared" si="10"/>
-        <v>397.5</v>
-      </c>
-      <c r="V33" s="65">
-        <f t="shared" si="11"/>
-        <v>755.25</v>
-      </c>
-      <c r="W33" s="66">
-        <f t="shared" si="12"/>
+      <c r="T33" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U33" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>524.7</v>
+      </c>
+      <c r="V33" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>675.75</v>
+      </c>
+      <c r="W33" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="X33" s="67"/>
+      <c r="X33" s="66"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="25" t="s">
@@ -4163,16 +4273,20 @@
         <v>16.5</v>
       </c>
       <c r="C34" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>35</v>
       </c>
       <c r="D34" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>32</v>
       </c>
       <c r="E34" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>38</v>
       </c>
       <c r="F34" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>33</v>
       </c>
       <c r="G34" s="24">
         <v>0</v>
@@ -4187,58 +4301,58 @@
         <v>8</v>
       </c>
       <c r="K34" s="22">
-        <f t="shared" si="0"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>556.5</v>
       </c>
       <c r="L34" s="22">
-        <f t="shared" si="1"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>508.8</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" si="2"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>604.2</v>
       </c>
       <c r="N34" s="22">
-        <f t="shared" si="3"/>
-        <v>763.2</v>
-      </c>
-      <c r="O34" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>524.7</v>
+      </c>
+      <c r="O34" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P34" s="51">
+      <c r="P34" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="51">
+      <c r="Q34" s="50">
         <f t="shared" si="6"/>
         <v>63.6</v>
       </c>
-      <c r="R34" s="51">
+      <c r="R34" s="50">
         <f t="shared" si="7"/>
         <v>63.6</v>
       </c>
-      <c r="S34" s="65">
-        <f t="shared" si="8"/>
-        <v>636</v>
-      </c>
-      <c r="T34" s="65">
-        <f t="shared" si="9"/>
-        <v>636</v>
-      </c>
-      <c r="U34" s="65">
-        <f t="shared" si="10"/>
-        <v>826.8</v>
-      </c>
-      <c r="V34" s="65">
-        <f t="shared" si="11"/>
-        <v>826.8</v>
-      </c>
-      <c r="W34" s="66">
-        <f t="shared" si="12"/>
-        <v>636</v>
-      </c>
-      <c r="X34" s="67"/>
+      <c r="S34" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>556.5</v>
+      </c>
+      <c r="T34" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>508.8</v>
+      </c>
+      <c r="U34" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>667.8</v>
+      </c>
+      <c r="V34" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>588.3</v>
+      </c>
+      <c r="W34" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>556.5</v>
+      </c>
+      <c r="X34" s="66"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="25" t="s">
@@ -4248,15 +4362,19 @@
         <v>14.1</v>
       </c>
       <c r="C35" s="23">
+        <f ca="1" t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="D35" s="23">
+        <f ca="1" t="shared" si="22"/>
         <v>40</v>
       </c>
-      <c r="D35" s="23">
-        <v>51</v>
-      </c>
       <c r="E35" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>39</v>
       </c>
       <c r="F35" s="23">
+        <f ca="1" t="shared" si="24"/>
         <v>36</v>
       </c>
       <c r="G35" s="24">
@@ -4272,58 +4390,58 @@
         <v>0</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="0"/>
+        <f ca="1" t="shared" si="13"/>
+        <v>588.3</v>
+      </c>
+      <c r="L35" s="22">
+        <f ca="1" t="shared" si="14"/>
         <v>636</v>
       </c>
-      <c r="L35" s="22">
-        <f t="shared" si="1"/>
-        <v>810.9</v>
-      </c>
       <c r="M35" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="3"/>
+        <f ca="1" t="shared" si="16"/>
         <v>572.4</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P35" s="51">
+      <c r="P35" s="50">
         <f t="shared" si="5"/>
         <v>87.45</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R35" s="51">
+      <c r="R35" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35" s="65">
-        <f t="shared" si="8"/>
-        <v>636</v>
-      </c>
-      <c r="T35" s="65">
-        <f t="shared" si="9"/>
-        <v>898.35</v>
-      </c>
-      <c r="U35" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V35" s="65">
-        <f t="shared" si="11"/>
+      <c r="S35" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>588.3</v>
+      </c>
+      <c r="T35" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>723.45</v>
+      </c>
+      <c r="U35" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>620.1</v>
+      </c>
+      <c r="V35" s="64">
+        <f ca="1" t="shared" si="11"/>
         <v>572.4</v>
       </c>
-      <c r="W35" s="66">
-        <f t="shared" si="12"/>
-        <v>636</v>
-      </c>
-      <c r="X35" s="67"/>
+      <c r="W35" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>588.3</v>
+      </c>
+      <c r="X35" s="66"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="25" t="s">
@@ -4333,16 +4451,20 @@
         <v>7.6</v>
       </c>
       <c r="C36" s="23">
-        <v>41</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>33</v>
       </c>
       <c r="D36" s="23">
-        <v>27</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>39</v>
       </c>
       <c r="E36" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>37</v>
       </c>
       <c r="F36" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>39</v>
       </c>
       <c r="G36" s="24">
         <v>1</v>
@@ -4357,58 +4479,58 @@
         <v>0</v>
       </c>
       <c r="K36" s="22">
-        <f t="shared" si="0"/>
-        <v>651.9</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" si="1"/>
-        <v>429.3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>620.1</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>588.3</v>
       </c>
       <c r="N36" s="22">
-        <f t="shared" si="3"/>
-        <v>397.5</v>
-      </c>
-      <c r="O36" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>620.1</v>
+      </c>
+      <c r="O36" s="50">
         <f t="shared" si="4"/>
         <v>7.95</v>
       </c>
-      <c r="P36" s="51">
+      <c r="P36" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R36" s="51">
+      <c r="R36" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36" s="65">
-        <f t="shared" si="8"/>
-        <v>659.85</v>
-      </c>
-      <c r="T36" s="65">
-        <f t="shared" si="9"/>
-        <v>429.3</v>
-      </c>
-      <c r="U36" s="65">
-        <f t="shared" si="10"/>
-        <v>636</v>
-      </c>
-      <c r="V36" s="65">
-        <f t="shared" si="11"/>
-        <v>397.5</v>
-      </c>
-      <c r="W36" s="66">
-        <f t="shared" si="12"/>
-        <v>667.8</v>
-      </c>
-      <c r="X36" s="67"/>
+      <c r="S36" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>532.65</v>
+      </c>
+      <c r="T36" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U36" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>588.3</v>
+      </c>
+      <c r="V36" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>620.1</v>
+      </c>
+      <c r="W36" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>540.6</v>
+      </c>
+      <c r="X36" s="66"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="25" t="s">
@@ -4418,16 +4540,20 @@
         <v>41.2</v>
       </c>
       <c r="C37" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>33</v>
       </c>
       <c r="D37" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>38</v>
       </c>
       <c r="E37" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>34</v>
       </c>
       <c r="F37" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>38</v>
       </c>
       <c r="G37" s="24">
         <v>2</v>
@@ -4442,58 +4568,58 @@
         <v>8</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" si="0"/>
-        <v>667.8</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" si="1"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>604.2</v>
       </c>
       <c r="M37" s="22">
-        <f t="shared" si="2"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>540.6</v>
       </c>
       <c r="N37" s="22">
-        <f t="shared" si="3"/>
-        <v>763.2</v>
-      </c>
-      <c r="O37" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>604.2</v>
+      </c>
+      <c r="O37" s="50">
         <f t="shared" si="4"/>
         <v>15.9</v>
       </c>
-      <c r="P37" s="51">
+      <c r="P37" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="Q37" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R37" s="51">
+      <c r="R37" s="50">
         <f t="shared" si="7"/>
         <v>63.6</v>
       </c>
-      <c r="S37" s="65">
-        <f t="shared" si="8"/>
-        <v>683.7</v>
-      </c>
-      <c r="T37" s="65">
-        <f t="shared" si="9"/>
-        <v>588.3</v>
-      </c>
-      <c r="U37" s="65">
-        <f t="shared" si="10"/>
-        <v>572.4</v>
-      </c>
-      <c r="V37" s="65">
-        <f t="shared" si="11"/>
-        <v>826.8</v>
-      </c>
-      <c r="W37" s="66">
-        <f t="shared" si="12"/>
-        <v>699.6</v>
-      </c>
-      <c r="X37" s="67"/>
+      <c r="S37" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>540.6</v>
+      </c>
+      <c r="T37" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>604.2</v>
+      </c>
+      <c r="U37" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>540.6</v>
+      </c>
+      <c r="V37" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>667.8</v>
+      </c>
+      <c r="W37" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>556.5</v>
+      </c>
+      <c r="X37" s="66"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="25" t="s">
@@ -4503,15 +4629,19 @@
         <v>25.6</v>
       </c>
       <c r="C38" s="23">
-        <v>43</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>35</v>
       </c>
       <c r="D38" s="23">
-        <v>37</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>35</v>
       </c>
       <c r="E38" s="23">
-        <v>25</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>40</v>
       </c>
       <c r="F38" s="23">
+        <f ca="1" t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="G38" s="24">
@@ -4527,58 +4657,58 @@
         <v>0</v>
       </c>
       <c r="K38" s="22">
-        <f t="shared" si="0"/>
-        <v>683.7</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>556.5</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" si="1"/>
-        <v>588.3</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>556.5</v>
       </c>
       <c r="M38" s="22">
-        <f t="shared" si="2"/>
-        <v>397.5</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>636</v>
       </c>
       <c r="N38" s="22">
-        <f t="shared" si="3"/>
+        <f ca="1" t="shared" si="16"/>
         <v>636</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="50">
         <f t="shared" si="4"/>
         <v>23.85</v>
       </c>
-      <c r="P38" s="51">
+      <c r="P38" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R38" s="51">
+      <c r="R38" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S38" s="65">
-        <f t="shared" si="8"/>
-        <v>707.55</v>
-      </c>
-      <c r="T38" s="65">
-        <f t="shared" si="9"/>
-        <v>588.3</v>
-      </c>
-      <c r="U38" s="65">
-        <f t="shared" si="10"/>
-        <v>397.5</v>
-      </c>
-      <c r="V38" s="65">
-        <f t="shared" si="11"/>
+      <c r="S38" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>580.35</v>
+      </c>
+      <c r="T38" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>556.5</v>
+      </c>
+      <c r="U38" s="64">
+        <f ca="1" t="shared" si="10"/>
         <v>636</v>
       </c>
-      <c r="W38" s="66">
-        <f t="shared" si="12"/>
-        <v>731.4</v>
-      </c>
-      <c r="X38" s="67"/>
+      <c r="V38" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>636</v>
+      </c>
+      <c r="W38" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>604.2</v>
+      </c>
+      <c r="X38" s="66"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="25" t="s">
@@ -4588,16 +4718,20 @@
         <v>24.1</v>
       </c>
       <c r="C39" s="23">
-        <v>41</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>34</v>
       </c>
       <c r="D39" s="23">
-        <v>36</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>39</v>
       </c>
       <c r="E39" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>37</v>
       </c>
       <c r="F39" s="23">
-        <v>40</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>33</v>
       </c>
       <c r="G39" s="24">
         <v>1</v>
@@ -4612,58 +4746,58 @@
         <v>0</v>
       </c>
       <c r="K39" s="22">
-        <f t="shared" si="0"/>
-        <v>651.9</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>540.6</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" si="1"/>
-        <v>572.4</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>620.1</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" si="2"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>588.3</v>
       </c>
       <c r="N39" s="22">
-        <f t="shared" si="3"/>
-        <v>636</v>
-      </c>
-      <c r="O39" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>524.7</v>
+      </c>
+      <c r="O39" s="50">
         <f t="shared" si="4"/>
         <v>7.95</v>
       </c>
-      <c r="P39" s="51">
+      <c r="P39" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="51">
+      <c r="Q39" s="50">
         <f t="shared" si="6"/>
         <v>63.6</v>
       </c>
-      <c r="R39" s="51">
+      <c r="R39" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S39" s="65">
-        <f t="shared" si="8"/>
-        <v>659.85</v>
-      </c>
-      <c r="T39" s="65">
-        <f t="shared" si="9"/>
-        <v>572.4</v>
-      </c>
-      <c r="U39" s="65">
-        <f t="shared" si="10"/>
-        <v>826.8</v>
-      </c>
-      <c r="V39" s="65">
-        <f t="shared" si="11"/>
-        <v>636</v>
-      </c>
-      <c r="W39" s="66">
-        <f t="shared" si="12"/>
-        <v>667.8</v>
-      </c>
-      <c r="X39" s="67"/>
+      <c r="S39" s="64">
+        <f ca="1" t="shared" si="8"/>
+        <v>548.55</v>
+      </c>
+      <c r="T39" s="64">
+        <f ca="1" t="shared" si="9"/>
+        <v>620.1</v>
+      </c>
+      <c r="U39" s="64">
+        <f ca="1" t="shared" si="10"/>
+        <v>651.9</v>
+      </c>
+      <c r="V39" s="64">
+        <f ca="1" t="shared" si="11"/>
+        <v>524.7</v>
+      </c>
+      <c r="W39" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>556.5</v>
+      </c>
+      <c r="X39" s="66"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="25" t="s">
@@ -4673,16 +4807,20 @@
         <v>5.5</v>
       </c>
       <c r="C40" s="23">
-        <v>42</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>33</v>
       </c>
       <c r="D40" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="E40" s="23">
-        <v>48</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>39</v>
       </c>
       <c r="F40" s="23">
-        <v>45</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>33</v>
       </c>
       <c r="G40" s="26">
         <v>2</v>
@@ -4697,58 +4835,58 @@
         <v>5</v>
       </c>
       <c r="K40" s="22">
-        <f t="shared" si="0"/>
-        <v>667.8</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L40" s="22">
-        <f t="shared" si="1"/>
-        <v>715.5</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>572.4</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="2"/>
-        <v>763.2</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>620.1</v>
       </c>
       <c r="N40" s="22">
-        <f t="shared" si="3"/>
-        <v>715.5</v>
-      </c>
-      <c r="O40" s="51">
+        <f ca="1" t="shared" si="16"/>
+        <v>524.7</v>
+      </c>
+      <c r="O40" s="50">
         <f t="shared" si="4"/>
         <v>15.9</v>
       </c>
-      <c r="P40" s="51">
+      <c r="P40" s="50">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="Q40" s="51">
+      <c r="Q40" s="50">
         <f t="shared" si="6"/>
         <v>63.6</v>
       </c>
-      <c r="R40" s="51">
+      <c r="R40" s="50">
         <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
-      <c r="S40" s="68">
-        <f t="shared" si="8"/>
+      <c r="S40" s="67">
+        <f ca="1" t="shared" si="8"/>
+        <v>540.6</v>
+      </c>
+      <c r="T40" s="67">
+        <f ca="1" t="shared" si="9"/>
+        <v>612.15</v>
+      </c>
+      <c r="U40" s="67">
+        <f ca="1" t="shared" si="10"/>
         <v>683.7</v>
       </c>
-      <c r="T40" s="68">
-        <f t="shared" si="9"/>
-        <v>755.25</v>
-      </c>
-      <c r="U40" s="68">
-        <f t="shared" si="10"/>
-        <v>826.8</v>
-      </c>
-      <c r="V40" s="68">
-        <f t="shared" si="11"/>
-        <v>755.25</v>
-      </c>
-      <c r="W40" s="66">
-        <f t="shared" si="12"/>
-        <v>699.6</v>
-      </c>
-      <c r="X40" s="67"/>
+      <c r="V40" s="67">
+        <f ca="1" t="shared" si="11"/>
+        <v>564.45</v>
+      </c>
+      <c r="W40" s="65">
+        <f ca="1" t="shared" si="12"/>
+        <v>556.5</v>
+      </c>
+      <c r="X40" s="66"/>
     </row>
     <row r="41" ht="19.25" spans="1:24">
       <c r="A41" s="27" t="s">
@@ -4757,500 +4895,504 @@
       <c r="B41" s="28">
         <v>7.6</v>
       </c>
-      <c r="C41" s="29">
-        <v>47</v>
-      </c>
-      <c r="D41" s="29">
+      <c r="C41" s="23">
+        <f ca="1" t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="D41" s="23">
+        <f ca="1" t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="E41" s="23">
+        <f ca="1" t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="E41" s="29">
-        <v>40</v>
-      </c>
-      <c r="F41" s="29">
-        <v>51</v>
-      </c>
-      <c r="G41" s="30">
+      <c r="F41" s="23">
+        <f ca="1" t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="G41" s="29">
         <v>7</v>
       </c>
-      <c r="H41" s="30">
-        <v>0</v>
-      </c>
-      <c r="I41" s="30">
-        <v>0</v>
-      </c>
-      <c r="J41" s="30">
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0</v>
+      </c>
+      <c r="J41" s="29">
         <v>11</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="0"/>
-        <v>747.3</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>524.7</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="1"/>
+        <f ca="1" t="shared" si="14"/>
+        <v>588.3</v>
+      </c>
+      <c r="M41" s="28">
+        <f ca="1" t="shared" si="15"/>
         <v>636</v>
       </c>
-      <c r="M41" s="28">
-        <f t="shared" si="2"/>
-        <v>636</v>
-      </c>
       <c r="N41" s="28">
-        <f t="shared" si="3"/>
-        <v>810.9</v>
-      </c>
-      <c r="O41" s="52">
+        <f ca="1" t="shared" si="16"/>
+        <v>588.3</v>
+      </c>
+      <c r="O41" s="51">
         <f t="shared" si="4"/>
         <v>55.65</v>
       </c>
-      <c r="P41" s="52">
+      <c r="P41" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="52">
+      <c r="Q41" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R41" s="52">
+      <c r="R41" s="51">
         <f t="shared" si="7"/>
         <v>87.45</v>
       </c>
-      <c r="S41" s="69">
-        <f t="shared" si="8"/>
-        <v>802.95</v>
-      </c>
-      <c r="T41" s="69">
-        <f t="shared" si="9"/>
+      <c r="S41" s="68">
+        <f ca="1" t="shared" si="8"/>
+        <v>580.35</v>
+      </c>
+      <c r="T41" s="68">
+        <f ca="1" t="shared" si="9"/>
+        <v>588.3</v>
+      </c>
+      <c r="U41" s="68">
+        <f ca="1" t="shared" si="10"/>
         <v>636</v>
       </c>
-      <c r="U41" s="69">
-        <f t="shared" si="10"/>
+      <c r="V41" s="68">
+        <f ca="1" t="shared" si="11"/>
+        <v>675.75</v>
+      </c>
+      <c r="W41" s="65">
+        <f ca="1" t="shared" si="12"/>
         <v>636</v>
       </c>
-      <c r="V41" s="69">
-        <f t="shared" si="11"/>
-        <v>898.35</v>
-      </c>
-      <c r="W41" s="66">
-        <f t="shared" si="12"/>
-        <v>858.6</v>
-      </c>
-      <c r="X41" s="67"/>
+      <c r="X41" s="66"/>
     </row>
     <row r="42" ht="19.25" spans="1:24">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="67"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="66"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="34">
         <f>MAX(B8:B41)</f>
         <v>66.5</v>
       </c>
-      <c r="C43" s="36">
-        <f>MAX(C8:C41)</f>
-        <v>54</v>
-      </c>
-      <c r="D43" s="36">
-        <f t="shared" ref="C43:W43" si="13">MAX(D8:D41)</f>
-        <v>54</v>
-      </c>
-      <c r="E43" s="36">
-        <f t="shared" si="13"/>
-        <v>51</v>
-      </c>
-      <c r="F43" s="36">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="G43" s="37">
-        <f t="shared" si="13"/>
+      <c r="C43" s="35">
+        <f ca="1">MAX(C8:C41)</f>
+        <v>40</v>
+      </c>
+      <c r="D43" s="35">
+        <f ca="1" t="shared" ref="C43:W43" si="25">MAX(D8:D41)</f>
+        <v>40</v>
+      </c>
+      <c r="E43" s="35">
+        <f ca="1" t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="F43" s="35">
+        <f ca="1" t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="G43" s="36">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="H43" s="37">
-        <f t="shared" si="13"/>
+      <c r="H43" s="36">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="I43" s="37">
-        <f t="shared" si="13"/>
+      <c r="I43" s="36">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="J43" s="37">
-        <f t="shared" si="13"/>
+      <c r="J43" s="36">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="K43" s="35">
-        <f t="shared" si="13"/>
-        <v>858.6</v>
-      </c>
-      <c r="L43" s="35">
-        <f t="shared" si="13"/>
-        <v>858.6</v>
-      </c>
-      <c r="M43" s="35">
-        <f t="shared" si="13"/>
-        <v>810.9</v>
-      </c>
-      <c r="N43" s="35">
-        <f t="shared" si="13"/>
-        <v>858.6</v>
-      </c>
-      <c r="O43" s="54">
-        <f t="shared" si="13"/>
+      <c r="K43" s="34">
+        <f ca="1" t="shared" si="25"/>
+        <v>636</v>
+      </c>
+      <c r="L43" s="34" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M43" s="34" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="34" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O43" s="53">
+        <f t="shared" si="25"/>
         <v>111.3</v>
       </c>
-      <c r="P43" s="54">
-        <f t="shared" si="13"/>
+      <c r="P43" s="53">
+        <f t="shared" si="25"/>
         <v>111.3</v>
       </c>
-      <c r="Q43" s="54">
-        <f t="shared" si="13"/>
+      <c r="Q43" s="53">
+        <f t="shared" si="25"/>
         <v>87.45</v>
       </c>
-      <c r="R43" s="54">
-        <f t="shared" si="13"/>
+      <c r="R43" s="53">
+        <f t="shared" si="25"/>
         <v>111.3</v>
       </c>
-      <c r="S43" s="70">
-        <f t="shared" si="13"/>
-        <v>969.9</v>
-      </c>
-      <c r="T43" s="70">
-        <f t="shared" si="13"/>
-        <v>969.9</v>
-      </c>
-      <c r="U43" s="70">
-        <f t="shared" si="13"/>
-        <v>898.35</v>
-      </c>
-      <c r="V43" s="70">
-        <f t="shared" si="13"/>
-        <v>969.9</v>
-      </c>
-      <c r="W43" s="71">
-        <f t="shared" si="13"/>
-        <v>1081.2</v>
-      </c>
-      <c r="X43" s="67"/>
+      <c r="S43" s="69">
+        <f ca="1" t="shared" si="25"/>
+        <v>715.5</v>
+      </c>
+      <c r="T43" s="69" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U43" s="69" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="69" t="e">
+        <f ca="1" t="shared" si="25"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W43" s="70">
+        <f ca="1" t="shared" si="25"/>
+        <v>826.8</v>
+      </c>
+      <c r="X43" s="66"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="38">
         <f>MIN(B8:B41)</f>
         <v>4.59</v>
       </c>
-      <c r="C44" s="40">
-        <f>MIN(C8:C41)</f>
-        <v>25</v>
-      </c>
-      <c r="D44" s="40">
-        <f t="shared" ref="C44:W44" si="14">MIN(D8:D41)</f>
-        <v>25</v>
-      </c>
-      <c r="E44" s="40">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="F44" s="40">
-        <f t="shared" si="14"/>
-        <v>25</v>
+      <c r="C44" s="39">
+        <f ca="1">MIN(C8:C41)</f>
+        <v>32</v>
+      </c>
+      <c r="D44" s="39">
+        <f ca="1" t="shared" ref="C44:W44" si="26">MIN(D8:D41)</f>
+        <v>32</v>
+      </c>
+      <c r="E44" s="39">
+        <f ca="1" t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="F44" s="39">
+        <f ca="1" t="shared" si="26"/>
+        <v>32</v>
       </c>
       <c r="G44" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H44" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I44" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J44" s="24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="39">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="L44" s="39">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="M44" s="39">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="N44" s="39">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="O44" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="72">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="T44" s="72">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="U44" s="72">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="V44" s="72">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="W44" s="73">
-        <f t="shared" si="14"/>
-        <v>397.5</v>
-      </c>
-      <c r="X44" s="67"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="38">
+        <f ca="1" t="shared" si="26"/>
+        <v>508.8</v>
+      </c>
+      <c r="L44" s="38" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="38" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="38" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O44" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="71">
+        <f ca="1" t="shared" si="26"/>
+        <v>508.8</v>
+      </c>
+      <c r="T44" s="71" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U44" s="71" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V44" s="71" t="e">
+        <f ca="1" t="shared" si="26"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W44" s="72">
+        <f ca="1" t="shared" si="26"/>
+        <v>508.8</v>
+      </c>
+      <c r="X44" s="66"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="38">
         <f>AVERAGE(B8:B41)</f>
         <v>17.4514705882353</v>
       </c>
-      <c r="C45" s="40">
-        <f>AVERAGE(C8:C41)</f>
-        <v>40.4117647058824</v>
-      </c>
-      <c r="D45" s="40">
-        <f t="shared" ref="C45:W45" si="15">AVERAGE(D8:D41)</f>
-        <v>39.8823529411765</v>
-      </c>
-      <c r="E45" s="40">
-        <f t="shared" si="15"/>
-        <v>39.1470588235294</v>
-      </c>
-      <c r="F45" s="40">
-        <f t="shared" si="15"/>
-        <v>40.3235294117647</v>
+      <c r="C45" s="39">
+        <f ca="1">AVERAGE(C8:C41)</f>
+        <v>35.8823529411765</v>
+      </c>
+      <c r="D45" s="39">
+        <f ca="1" t="shared" ref="C45:W45" si="27">AVERAGE(D8:D41)</f>
+        <v>35.9705882352941</v>
+      </c>
+      <c r="E45" s="39">
+        <f ca="1" t="shared" si="27"/>
+        <v>36.4705882352941</v>
+      </c>
+      <c r="F45" s="39">
+        <f ca="1" t="shared" si="27"/>
+        <v>36.3235294117647</v>
       </c>
       <c r="G45" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.61764705882353</v>
       </c>
       <c r="H45" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.32352941176471</v>
       </c>
       <c r="I45" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.02941176470588</v>
       </c>
       <c r="J45" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.76470588235294</v>
       </c>
-      <c r="K45" s="39">
-        <f t="shared" si="15"/>
-        <v>642.547058823529</v>
-      </c>
-      <c r="L45" s="39">
-        <f t="shared" si="15"/>
-        <v>634.129411764706</v>
-      </c>
-      <c r="M45" s="39">
-        <f t="shared" si="15"/>
-        <v>622.438235294118</v>
-      </c>
-      <c r="N45" s="39">
-        <f t="shared" si="15"/>
-        <v>641.144117647059</v>
-      </c>
-      <c r="O45" s="55">
-        <f t="shared" si="15"/>
+      <c r="K45" s="38">
+        <f ca="1" t="shared" si="27"/>
+        <v>570.529411764706</v>
+      </c>
+      <c r="L45" s="38" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M45" s="38" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="38" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O45" s="54">
+        <f t="shared" si="27"/>
         <v>20.8102941176471</v>
       </c>
-      <c r="P45" s="55">
-        <f t="shared" si="15"/>
+      <c r="P45" s="54">
+        <f t="shared" si="27"/>
         <v>18.4720588235294</v>
       </c>
-      <c r="Q45" s="55">
-        <f t="shared" si="15"/>
+      <c r="Q45" s="54">
+        <f t="shared" si="27"/>
         <v>16.1338235294118</v>
       </c>
-      <c r="R45" s="55">
-        <f t="shared" si="15"/>
+      <c r="R45" s="54">
+        <f t="shared" si="27"/>
         <v>21.9794117647059</v>
       </c>
-      <c r="S45" s="72">
-        <f t="shared" si="15"/>
-        <v>663.357352941176</v>
-      </c>
-      <c r="T45" s="72">
-        <f t="shared" si="15"/>
-        <v>652.601470588235</v>
-      </c>
-      <c r="U45" s="72">
-        <f t="shared" si="15"/>
-        <v>638.572058823529</v>
-      </c>
-      <c r="V45" s="72">
-        <f t="shared" si="15"/>
-        <v>663.123529411765</v>
-      </c>
-      <c r="W45" s="73">
-        <f t="shared" si="15"/>
-        <v>684.167647058823</v>
+      <c r="S45" s="71">
+        <f ca="1" t="shared" si="27"/>
+        <v>591.339705882353</v>
+      </c>
+      <c r="T45" s="71" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U45" s="71" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V45" s="71" t="e">
+        <f ca="1" t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W45" s="72">
+        <f ca="1" t="shared" si="27"/>
+        <v>612.15</v>
       </c>
     </row>
     <row r="46" ht="19.25" spans="1:25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="41">
         <f>SUM(B8:B41)</f>
         <v>593.35</v>
       </c>
-      <c r="C46" s="43">
-        <f t="shared" ref="C46:W46" si="16">SUM(C8:C41)</f>
-        <v>1374</v>
-      </c>
-      <c r="D46" s="43">
-        <f t="shared" si="16"/>
-        <v>1356</v>
-      </c>
-      <c r="E46" s="43">
-        <f t="shared" si="16"/>
-        <v>1331</v>
-      </c>
-      <c r="F46" s="43">
-        <f t="shared" si="16"/>
-        <v>1371</v>
-      </c>
-      <c r="G46" s="44">
-        <f t="shared" si="16"/>
+      <c r="C46" s="42">
+        <f ca="1">SUM(C8:C41)</f>
+        <v>1220</v>
+      </c>
+      <c r="D46" s="42">
+        <f ca="1" t="shared" ref="C46:W46" si="28">SUM(D8:D41)</f>
+        <v>1223</v>
+      </c>
+      <c r="E46" s="42">
+        <f ca="1" t="shared" si="28"/>
+        <v>1240</v>
+      </c>
+      <c r="F46" s="42">
+        <f ca="1" t="shared" si="28"/>
+        <v>1235</v>
+      </c>
+      <c r="G46" s="43">
+        <f t="shared" si="28"/>
         <v>89</v>
       </c>
-      <c r="H46" s="44">
-        <f t="shared" si="16"/>
+      <c r="H46" s="43">
+        <f t="shared" si="28"/>
         <v>79</v>
       </c>
-      <c r="I46" s="44">
-        <f t="shared" si="16"/>
+      <c r="I46" s="43">
+        <f t="shared" si="28"/>
         <v>69</v>
       </c>
-      <c r="J46" s="44">
-        <f t="shared" si="16"/>
+      <c r="J46" s="43">
+        <f t="shared" si="28"/>
         <v>94</v>
       </c>
-      <c r="K46" s="42">
-        <f t="shared" si="16"/>
-        <v>21846.6</v>
-      </c>
-      <c r="L46" s="42">
-        <f t="shared" si="16"/>
-        <v>21560.4</v>
-      </c>
-      <c r="M46" s="42">
-        <f t="shared" si="16"/>
-        <v>21162.9</v>
-      </c>
-      <c r="N46" s="42">
-        <f t="shared" si="16"/>
-        <v>21798.9</v>
-      </c>
-      <c r="O46" s="56">
-        <f t="shared" si="16"/>
+      <c r="K46" s="41">
+        <f ca="1" t="shared" si="28"/>
+        <v>19398</v>
+      </c>
+      <c r="L46" s="41" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M46" s="41" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N46" s="41" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O46" s="55">
+        <f t="shared" si="28"/>
         <v>707.55</v>
       </c>
-      <c r="P46" s="56">
-        <f t="shared" si="16"/>
+      <c r="P46" s="55">
+        <f t="shared" si="28"/>
         <v>628.05</v>
       </c>
-      <c r="Q46" s="56">
-        <f t="shared" si="16"/>
+      <c r="Q46" s="55">
+        <f t="shared" si="28"/>
         <v>548.55</v>
       </c>
-      <c r="R46" s="56">
-        <f t="shared" si="16"/>
+      <c r="R46" s="55">
+        <f t="shared" si="28"/>
         <v>747.3</v>
       </c>
-      <c r="S46" s="74">
-        <f t="shared" si="16"/>
-        <v>22554.15</v>
-      </c>
-      <c r="T46" s="74">
-        <f t="shared" si="16"/>
-        <v>22188.45</v>
-      </c>
-      <c r="U46" s="74">
-        <f t="shared" si="16"/>
-        <v>21711.45</v>
-      </c>
-      <c r="V46" s="74">
-        <f t="shared" si="16"/>
-        <v>22546.2</v>
-      </c>
-      <c r="W46" s="75">
-        <f t="shared" si="16"/>
-        <v>23261.7</v>
-      </c>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
+      <c r="S46" s="73">
+        <f ca="1" t="shared" si="28"/>
+        <v>20105.55</v>
+      </c>
+      <c r="T46" s="73" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U46" s="73" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V46" s="73" t="e">
+        <f ca="1" t="shared" si="28"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W46" s="74">
+        <f ca="1">SUM(W8:W41)</f>
+        <v>20813.1</v>
+      </c>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
     </row>
     <row r="47" spans="24:25">
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
     </row>
     <row r="48" spans="24:25">
-      <c r="X48" s="76"/>
-      <c r="Y48" s="76"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
     </row>
     <row r="49" spans="24:25">
-      <c r="X49" s="76"/>
-      <c r="Y49" s="76"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
     </row>
     <row r="61" spans="9:9">
-      <c r="I61" s="57"/>
+      <c r="I61" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
